--- a/Pressemitteilung_zu_bereinigen.xlsx
+++ b/Pressemitteilung_zu_bereinigen.xlsx
@@ -443,401 +443,397 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Auftragseingang im Geschäftsjahr 2023 auf vergleichbarer Basis um 7 Prozent auf 92,3 Milliarden Euro gestiegen (GJ 2022: 89,0 Milliarden Euro)  </t>
+          <t>Auftragseingang Geschäftsjahr 2023 vergleichbarer Basis 7 Prozent 92,3 Milliarden Euro gestiegen ( GJ 2022 : 89,0 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Umsatzerlöse im Geschäftsjahr 2023 auf vergleichbarer Basis um 11 Prozent auf 7 7,8 Milliarden Euro ge wachsen  (GJ 2022: 72,0 Milliarden Euro)  </t>
+          <t>Umsatzerlöse Geschäftsjahr 2023 vergleichbarer Basis 11 Prozent 7 7,8 Milliarden Euro ge wachsen ( GJ 2022 : 72,0 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neue Rekordwerte : Ergebnis Industrielles Geschäft von 1 1,4 Milliarden Euro (GJ 2022: 10,3 Milliarden Euro) ; Ergebnismarge Industrielles Geschäft auf 15,4 Prozent gestiegen (GJ 2022: 15,1 Prozent)  </t>
+          <t>Neue Rekordwerte : Ergebnis Industrielles Geschäft 1 1,4 Milliarden Euro ( GJ 2022 : 10,3 Milliarden Euro ) ; Ergebnismarge Industrielles Geschäft 15,4 Prozent gestiegen ( GJ 2022 : 15,1 Prozent )</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Neue Bestmarke beim  Free Cash Flow auf Konzernebene von 10,0 Milliarden Euro (GJ 2022: 8,2 Milliarden Euro)  </t>
+          <t>Neue Bestmarke beim Free Cash Flow Konzernebene 10,0 Milliarden Euro ( GJ 2022 : 8,2 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gewinn nach Steuern auf historischen Höchststand von 8,5 Milliarden Euro annähernd  verdoppelt  (GJ 2022: 4,4 Milliarden Euro)  </t>
+          <t>Gewinn Steuern historischen Höchststand 8,5 Milliarden Euro annähernd verdoppelt ( GJ 2022 : 4,4 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erhöhte Dividende von 4,70 Euro pro Aktie (GJ 2022: 4,25 Euro) vorgeschlagen  </t>
+          <t>Erhöhte Dividende 4,70 Euro pro Aktie ( GJ 2022 : 4,25 Euro ) vorgeschlagen</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Innomotics: Vorbereitung weiterer Optionen zur Eigenständigkeit  </t>
+          <t>Innomotics : Vorbereitung weiterer Optionen Eigenständigkeit</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ausblick Geschäftsjahr 2024: Siemens  erwartet  ein Umsatzerlöswachstum auf vergleichbarer Basis von 4 bis 8 Prozent und ein unverwässertes Ergebnis je Aktie vor PPA -Effekten exklusive des Investments in Siemens Energy zwischen 10,40  Euro  und 11,00  Euro  </t>
+          <t>Ausblick Geschäftsjahr 2024 : Siemens erwartet Umsatzerlöswachstum vergleichbarer Basis 4 8 Prozent unverwässertes Ergebnis je Aktie PPA -Effekten exklusive Investments Siemens Energy 10,40 Euro 11,00 Euro</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Siemens  hat im abgelaufenen Geschäftsjahr 2023 (30</t>
+          <t>Siemens abgelaufenen Geschäftsjahr 2023 ( 30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>September 2023) seinen profitablen Wachstumskurs erfolgreich fortgesetzt und zahlreiche Rekorde erzielt</t>
+          <t>September 2023 ) profitablen Wachstumskurs erfolgreich fortgesetzt zahlreiche Rekorde erzielt</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eine historische Bestl eistung im operativen Geschäft  ließ die Umsatzerlöse im Gesamtjahr um 11 Prozent auf vergleichbarer Basis  ohne Währungsumrechnungs - und Portfolioeffekte  auf das obere Ende der angehobenen Prognose  (9 Prozent bis   11 Prozent) steigen </t>
+          <t>historische Bestl eistung operativen Geschäft ließ Umsatzerlöse Gesamtjahr 11 Prozent vergleichbarer Basis Währungsumrechnungs - Portfolioeffekte obere Ende angehobenen Prognose ( 9 Prozent 11 Prozent ) steigen</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sowohl das Ergebn is und die Profitabilität des Industriellen Geschäfts  als auch der Gewinn nach Steuern  erreichten neue Rekordwert e</t>
+          <t>Sowohl Ergebn is Profitabilität Industriellen Geschäfts Gewinn Steuern erreichten neue Rekordwert e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Von dieser hervorragenden Leistung  des Unternehmens sollen auch die Anteilseigner profitieren</t>
+          <t>hervorragenden Leistung Unternehmens sollen Anteilseigner profitieren</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aufsichtsrat und Vorstand schlagen vor, die Dividende von 4,25 Euro im Vorjahr auf 4,70 Euro je Aktie zu erhöhen</t>
+          <t>Aufsichtsrat Vorstand schlagen , Dividende 4,25 Euro Vorjahr 4,70 Euro je Aktie erhöhen</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> „Das Geschäftsjahr 2023 war ein Jahr mit zahlreichen Rekorden: In unserem Industriellen Geschäft erreichten wir bei Ergebnis und Profitabilität die höchsten Werte aller Zeiten</t>
+          <t>„ Geschäftsjahr 2023 Jahr zahlreichen Rekorden : Industriellen Geschäft erreichten Ergebnis Profitabilität höchsten Werte Zeiten</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Unseren Gewinn nach Steuern haben wir fast verdoppelt und so einen historischen Höchststand erreicht</t>
+          <t>Gewinn Steuern fast verdoppelt historischen Höchststand erreicht</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ich möchte allen unseren Kolleginnen und Kollegen auf der ganzen Welt für ihr großes Engagement danken, mit dem sie zu diesen hervorragenden Ergebnissen beigetragen haben</t>
+          <t>möchte Kolleginnen Kollegen ganzen Welt großes Engagement danken , hervorragenden Ergebnissen beigetragen</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Unsere Strategie zahlt sich aus und wir beschleunigen weiterhin die digitale und nachhaltige Transformation unserer Kunden”, sa gte Roland Busch, Vorstandsvorsitzender der Siemens AG</t>
+          <t>Strategie zahlt beschleunigen weiterhin digitale nachhaltige Transformation unserer Kunden ” , sa gte Roland Busch , Vorstandsvorsitzender Siemens AG</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> „Siemens hat im Geschäftsjahr 2023 sein wertsteigerndes Wachstum fortgesetzt und erstmals einen Free Cash Flow von mehr als zehn Milliarden Euro erzielt”, sagte Ralf P</t>
+          <t>„ Siemens Geschäftsjahr 2023 wertsteigerndes Wachstum fortgesetzt erstmals Free Cash Flow mehr zehn Milliarden Euro erzielt ” , sagte Ralf P</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Thomas, Chief Financial Officer der Siemens AG</t>
+          <t>Thomas , Chief Financial Officer Siemens AG</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>„Von diesem Erfolg profitieren auch uns ere Aktionärinnen und Aktionäre mit einer vorgeschlagenen Erhöhung der Dividende auf 4,70 Euro, einer korrespondierenden Dividendenrendite von 3,5 Prozent und unserem ausge weiteten Aktienrückkauf.“  Gewinn nach Steuern fast verdoppelt – Free Cash Flow mit Bestwert  Siemens steigerte im abgelaufenen Geschäftsjahr die Umsatzerlöse auf vergleichbarer Basis  um 11 Prozent auf 7 7,8 Milliarden  Euro (GJ 2022: 72,0 Milliarden Euro)</t>
+          <t>„ Erfolg profitieren ere Aktionärinnen Aktionäre vorgeschlagenen Erhöhung Dividende 4,70 Euro , korrespondierenden Dividendenrendite 3,5 Prozent ausge weiteten Aktienrückkauf. “ Gewinn Steuern fast verdoppelt – Free Cash Flow Bestwert Siemens steigerte abgelaufenen Geschäftsjahr Umsatzerlöse vergleichbarer Basis 11 Prozent 7 7,8 Milliarden Euro ( GJ 2022 : 72,0 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Der Auftragseingang verzeichnete einen Anstieg auf vergleichbarer Basis um 7  Prozent auf 92,3 Milliarden Euro (GJ 2022: 89,0 Milliarden Euro)</t>
+          <t>Auftragseingang verzeichnete Anstieg vergleichbarer Basis 7 Prozent 92,3 Milliarden Euro ( GJ 2022 : 89,0 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Das Verhältnis von Auftragseingang zu Umsatzerlösen („Book -to-Bill-Ratio“) liegt mit 1, 19 auf einem ausgezeichneten Niveau (GJ 2022: 1,24)</t>
+          <t>Verhältnis Auftragseingang Umsatzerlösen ( „ Book -to-Bill-Ratio “ ) liegt 1 , 19 ausgezeichneten Niveau ( GJ 2022 : 1,24 )</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Der Auftragsbestand erreichte mit 1 11 Milliarden Euro erneut einen Rekordwert mit hoher Qualität</t>
+          <t>Auftragsbestand erreichte 1 11 Milliarden Euro erneut Rekordwert hoher Qualität</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Das digitale Geschäft wächst weiterhin schnell  und verzeichnete einen Anstieg um rund 12 Prozent auf 7,3 Milliarden Euro (GJ 2022: 6,5 Milliarden Euro)</t>
+          <t>digitale Geschäft wächst weiterhin schnell verzeichnete Anstieg rund 12 Prozent 7,3 Milliarden Euro ( GJ 2022 : 6,5 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Damit hat Siemens seine avisierte Wachst umsrate von einem durchschnittlichen jährlichen Wachstum von 10 Prozent  in diesem Geschäftsjahr deutlich  übertr offen</t>
+          <t>Siemens avisierte Wachst umsrate durchschnittlichen jährlichen Wachstum 10 Prozent Geschäftsjahr deutlich übertr offen</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Das Ergebnis  des Industrielle n Geschäft s stieg um 1 1 Prozent  auf 11,4 Milliarden Euro  (GJ 2022: 10,3 Milliarden Euro) </t>
+          <t>Ergebnis Industrielle n Geschäft s stieg 1 1 Prozent 11,4 Milliarden Euro ( GJ 2022 : 10,3 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Die Ergebnismarge  des Industrielle n Geschäft s verbesserte sich auf  15,4 Prozent  (GJ 2022: 15,1 Prozent) </t>
+          <t>Ergebnismarge Industrielle n Geschäft s verbesserte 15,4 Prozent ( GJ 2022 : 15,1 Prozent )</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Der Gewinn  nach Steuern erreichte 8,5 Milliarden Euro nach einem Gewinn nach Steuern von 4,4 Milliarden Euro im Geschäftsjahr 2022</t>
+          <t>Gewinn Steuern erreichte 8,5 Milliarden Euro Gewinn Steuern 4,4 Milliarden Euro Geschäftsjahr 2022</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Alle drei Werte  sind Bestmarken in der Unternehmensgeschichte</t>
+          <t>drei Werte Bestmarken Unternehmensgeschichte</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Das unverwässerte Ergebnis je Aktie vor Effekten aus der Kaufpreisallokation (EPS pre PPA) belief sich  entsprechend auf 10,77 Euro (GJ  2022: 5,47 Euro); ohne Berücksichtigung der Siemens Energy Beteiligung , die 0,84  Euro  zum EPS pre PPA beitrug, lag das EPS pre PPA bei 9,93 Euro und übertraf  die Prognose  (9,60 Euro bis 9,90 Euro) </t>
+          <t>unverwässerte Ergebnis je Aktie Effekten Kaufpreisallokation ( EPS pre PPA ) belief entsprechend 10,77 Euro ( GJ 2022 : 5,47 Euro ) ; Berücksichtigung Siemens Energy Beteiligung , 0,84 Euro EPS pre PPA beitrug , lag EPS pre PPA 9,93 Euro übertraf Prognose ( 9,60 Euro 9,90 Euro )</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Der sogenannte Free Cash Flow „all -in“ aus fortgeführten und nicht fortgeführten Aktivitäten erreichte auf Konzernebene  einen Rekordwert und lag erstmals bei 10,0 Milliarden Euro  (GJ 2022: 8,2 Milliarden Euro) </t>
+          <t>sogenannte Free Cash Flow „ all -in “ fortgeführten fortgeführten Aktivitäten erreichte Konzernebene Rekordwert lag erstmals 10,0 Milliarden Euro ( GJ 2022 : 8,2 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Das Industrielle Geschäft verzeichnete ebenfalls einen neuen Höchstwert beim Free Cash Flow von 10,4 Milliarden Euro (GJ 2022: 9,7  Milliarden Euro)</t>
+          <t>Industrielle Geschäft verzeichnete ebenfalls neuen Höchstwert beim Free Cash Flow 10,4 Milliarden Euro ( GJ 2022 : 9,7 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Starker Abschluss im vierten Quartal  mit Rekorden i n industriellen Geschäften  Im vierten Quartal stieg der Auftragseingang auf vergleichbarer Basis um 6 Prozent auf 21,8 Milliarden Euro mit höherem Volumen aus Großaufträgen bei Mobility sowie  Wachstum bei Siemens Healthineers und Smart Infrastructure </t>
+          <t>Starker Abschluss vierten Quartal Rekorden i n industriellen Geschäften vierten Quartal stieg Auftragseingang vergleichbarer Basis 6 Prozent 21,8 Milliarden Euro höherem Volumen Großaufträgen Mobility sowie Wachstum Siemens Healthineers Smart Infrastructure</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ebenso stiegen die Umsatzerlöse auf vergleichbarer Basis um 10 Prozent auf 2 1,4 Milliarden Euro (Q4 2022: 20,6 Milliarden Euro)</t>
+          <t>Ebenso stiegen Umsatzerlöse vergleichbarer Basis 10 Prozent 2 1,4 Milliarden Euro ( Q4 2022 : 20,6 Milliarden Euro )</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Die Umsatzerlöse lagen in allen industriellen Geschäften auf Rekordniveau, wobei der größte Wachstumsbeitrag von Smart Infrastructure kam</t>
+          <t>Umsatzerlöse lagen industriellen Geschäften Rekordniveau , wobei größte Wachstumsbeitrag Smart Infrastructure kam</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Das Ergebnis des In dustriellen Geschäfts nahm um 7 Prozent auf 3,4 Milliarden Euro zu und verzeichnete aufgrund beträchtlicher  Zuwächse bei Digital Industries  und Smart Infrastructure  den höchsten jemals erzielten Quartalswert</t>
+          <t>Ergebnis dustriellen Geschäfts nahm 7 Prozent 3,4 Milliarden Euro verzeichnete aufgrund beträchtlicher Zuwächse Digital Industries Smart Infrastructure höchsten jemals erzielten Quartalswert</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Die Ergebnismarge erreichte 16,5 Prozent </t>
+          <t>Ergebnismarge erreichte 16,5 Prozent</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Der Gewinn nach Steuern betrug 1,9  Milliarden Euro nach 2,9  Milliarden Euro im Vorjahresquartal , das durch einen Gewinn von 1,1  Milliarden Euro (vor Steuern) aus dem Verkauf des Brief- und Paketabwicklungsgeschäfts  begünstigt war</t>
+          <t>Gewinn Steuern betrug 1,9 Milliarden Euro 2,9 Milliarden Euro Vorjahresquartal , Gewinn 1,1 Milliarden Euro ( Steuern ) Verkauf Brief- Paketabwicklungsgeschäfts begünstigt</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Innomotics: Vorbereitung weiterer Optionen zur Eigenständigkeit   Die Verselbständigung von Innomotics wurde, wie geplant, erfolgreich umgesetzt und ist weitestgehend abgeschlossen</t>
+          <t>Innomotics : Vorbereitung weiterer Optionen Eigenständigkeit Verselbständigung Innomotics wurde , geplant , erfolgreich umgesetzt weitestgehend abgeschlossen</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Das neue Unternehmen steht bei Kunden, Lieferanten und den über 15.000 Beschäftigten  für Leistungsfähigkeit und Innovationsstärke</t>
+          <t>neue Unternehmen steht Kunden , Lieferanten 15.000 Beschäftigten Leistungsfähigkeit Innovationsstärke</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Die gute Geschäftsentwicklung und ein gesunder Auftragsbestand unterstreichen die starke Positionierung von Innomotics als führender Anbieter für Großantriebe und Motoren</t>
+          <t>gute Geschäftsentwicklung gesunder Auftragsbestand unterstreichen starke Positionierung Innomotics führender Anbieter Großantriebe Motoren</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Damit sind alle Voraussetzungen gescha ffen, die weiteren Schritte zur Eigenständigkeit von In nomotics aus einer Position der Stärke heraus einzuleiten</t>
+          <t>Voraussetzungen gescha ffen , weiteren Schritte Eigenständigkeit nomotics Position Stärke heraus einzuleiten</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Daher wird Siemens mit der Vorbereitung für eine Börsennotierung von Innomotics beginnen</t>
+          <t>Daher Siemens Vorbereitung Börsennotierung Innomotics beginnen</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gleichzeitig werden auch Angebote von Dritten sorgfältig geprüft und gegebenenfalls als Alternative zu einer Börsennotierung in Betracht gezogen </t>
+          <t>Gleichzeitig Angebote Dritten sorgfältig geprüft gegebenenfalls Alternative Börsennotierung Betracht gezogen</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Es wird sichergestellt, dass die künftige Eigentümerstruktur beste Rahmenbedingungen für eine nachhaltige , wachstumsorientierte  und wertsteigernde  Entwicklung bietet</t>
+          <t>sichergestellt , künftige Eigentümerstruktur beste Rahmenbedingungen nachhaltige , wachstumsorientierte wertsteigernde Entwicklung bietet</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ausblick für das Geschäftsjahr 2024  Die Prognose für den Siemens -Konzern im Geschäftsjahr 2024 beruht auf der Annahme, dass die geopolitischen Spannungen nicht weiter zunehmen </t>
+          <t>Ausblick Geschäftsjahr 2024 Prognose Siemens -Konzern Geschäftsjahr 2024 beruht Annahme , geopolitischen Spannungen zunehmen</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Unter dieser Bedingung wird erwartet, dass das Industrielle Geschäft weiter profitabel wachsen wird</t>
+          <t>Bedingung erwartet , Industrielle Geschäft profitabel wachsen</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Für den Siemens -Konzern wird ein Umsatzerlöswachstum auf vergleichbarer Basis (bereinigt um Währungsumrechnungs - und Portfolioeffekte) in einer Bandbreite von 4 Prozent bis 8 Prozent und ein Verhältnis von Auftragseingang zu Umsatzerlösen (Book -to-Bill-Verhältnis) von über 1 erwartet</t>
+          <t>Siemens -Konzern Umsatzerlöswachstum vergleichbarer Basis ( bereinigt Währungsumrechnungs - Portfolioeffekte ) Bandbreite 4 Prozent 8 Prozent Verhältnis Auftragseingang Umsatzerlösen ( Book -to-Bill-Verhältnis ) 1 erwartet</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital Industries  prognostiziert für das Geschäftsjahr 2024 eine Entwicklung der Umsatzerlöse auf vergleichbarer Basis in einer Bandbreite von 0  Prozent  bis 3 Prozent </t>
+          <t>Digital Industries prognostiziert Geschäftsjahr 2024 Entwicklung Umsatzerlöse vergleichbarer Basis Bandbreite 0 Prozent 3 Prozent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dies basiert auf der Annahme, dass nach Abbau der Vorräte bei Kunden die weltweite Nachfrage in den Automatisierungsgeschäften insbesondere in China in der zweiten Hälfte des Geschäftsjahres wieder anziehen wird</t>
+          <t>basiert Annahme , Abbau Vorräte Kunden weltweite Nachfrage Automatisierungsgeschäften insbesondere China zweiten Hälfte Geschäftsjahres anziehen</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Die Ergebnismarge wird zwischen 20  Prozent  und 23  Prozent  erwartet</t>
+          <t>Ergebnismarge 20 Prozent 23 Prozent erwartet</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Smart Infrastructure  erwartet im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 7 Prozent und 10 Prozent und eine Ergebnismarge in einer Bandbreite von 15 Prozent bis 17 Prozent</t>
+          <t>Smart Infrastructure erwartet Geschäftsjahr 2024 Umsatzerlöswachstum vergleichbarer Basis 7 Prozent 10 Prozent Ergebnismarge Bandbreite 15 Prozent 17 Prozent</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mobility  beabsichtigt, im Geschäftsjahr 2024 ein Umsatzerlöswachstum auf vergleichbarer Basis zwischen 8 Prozent und 11 Prozent zu erzielen</t>
+          <t>Mobility beabsichtigt , Geschäftsjahr 2024 Umsatzerlöswachstum vergleichbarer Basis 8 Prozent 11 Prozent erzielen</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Die Ergebnismarge wird zwischen 8 Prozent und 10 Prozent erwartet</t>
+          <t>Ergebnismarge 8 Prozent 10 Prozent erwartet</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Es wird davon ausgegangen, dass im Geschäftsjahr 2024 durch das profitable Wachstum des Industriellen Geschäfts ein höheres unverwässertes Ergebnis je Aktie (für den Gewinn nach Steuern) vor Effekten aus der Kaufpreisallokation (EPS pre PPA), ohne Berücksi chtigung von Siemens Energy Beteiligung, in einer Bandbreite von 10,40 Euro bis 11,00 Euro erreicht wird, gegenüber einem EPS pre PPA, ohne Berücksichtigung von Siemens Energy Beteiligung, von 9,93 Euro im Geschäftsjahr 2023</t>
+          <t>davon ausgegangen , Geschäftsjahr 2024 profitable Wachstum Industriellen Geschäfts höheres unverwässertes Ergebnis je Aktie ( Gewinn Steuern ) Effekten Kaufpreisallokation ( EPS pre PPA ) , Berücksi chtigung Siemens Energy Beteiligung , Bandbreite 10,40 Euro 11,00 Euro erreicht , gegenüber EPS pre PPA , Berücksichtigung Siemens Energy Beteiligung , 9,93 Euro Geschäftsjahr 2023</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
